--- a/www/IndicatorsPerCountry/India_CopperProduction_TerritorialRef_1949_2012_CCode_356.xlsx
+++ b/www/IndicatorsPerCountry/India_CopperProduction_TerritorialRef_1949_2012_CCode_356.xlsx
@@ -189,13 +189,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/India_CopperProduction_TerritorialRef_1949_2012_CCode_356.xlsx
+++ b/www/IndicatorsPerCountry/India_CopperProduction_TerritorialRef_1949_2012_CCode_356.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="65">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,127 +39,139 @@
     <t>0</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>41.8</t>
-  </si>
-  <si>
-    <t>71.21</t>
-  </si>
-  <si>
-    <t>69.997</t>
-  </si>
-  <si>
-    <t>75.398</t>
-  </si>
-  <si>
-    <t>57.1</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60.2</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
   <si>
     <t>58</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>75.1</t>
-  </si>
-  <si>
-    <t>78.6</t>
-  </si>
-  <si>
-    <t>82.5</t>
-  </si>
-  <si>
-    <t>88.7</t>
-  </si>
-  <si>
-    <t>95.8</t>
-  </si>
-  <si>
-    <t>102.1</t>
-  </si>
-  <si>
-    <t>121.5</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>443.618</t>
-  </si>
-  <si>
-    <t>507.484</t>
-  </si>
-  <si>
-    <t>529.121</t>
-  </si>
-  <si>
-    <t>780.78</t>
-  </si>
-  <si>
-    <t>766.027</t>
-  </si>
-  <si>
-    <t>1012.054</t>
-  </si>
-  <si>
-    <t>1081.04</t>
-  </si>
-  <si>
-    <t>1160</t>
-  </si>
-  <si>
-    <t>1005.831</t>
-  </si>
-  <si>
-    <t>840.318</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>816</t>
-  </si>
-  <si>
-    <t>772.9</t>
-  </si>
-  <si>
-    <t>632.6</t>
-  </si>
-  <si>
-    <t>998.53</t>
-  </si>
-  <si>
-    <t>878.376</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>360</t>
+    <t>45.944</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>47.8</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>39.9</t>
+  </si>
+  <si>
+    <t>34.1</t>
+  </si>
+  <si>
+    <t>31.9</t>
+  </si>
+  <si>
+    <t>32.4</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>26.9</t>
+  </si>
+  <si>
+    <t>27.4</t>
+  </si>
+  <si>
+    <t>34.7</t>
+  </si>
+  <si>
+    <t>30.6</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>28.638</t>
   </si>
   <si>
     <t>Description</t>
@@ -3371,7 +3383,7 @@
         <v>1911.0</v>
       </c>
       <c r="E184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185">
@@ -3388,7 +3400,7 @@
         <v>1912.0</v>
       </c>
       <c r="E185" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186">
@@ -3405,7 +3417,7 @@
         <v>1913.0</v>
       </c>
       <c r="E186" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187">
@@ -3524,7 +3536,7 @@
         <v>1920.0</v>
       </c>
       <c r="E193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194">
@@ -3541,7 +3553,7 @@
         <v>1921.0</v>
       </c>
       <c r="E194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195">
@@ -3558,7 +3570,7 @@
         <v>1922.0</v>
       </c>
       <c r="E195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196">
@@ -3592,7 +3604,7 @@
         <v>1924.0</v>
       </c>
       <c r="E197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198">
@@ -3609,7 +3621,7 @@
         <v>1925.0</v>
       </c>
       <c r="E198" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199">
@@ -3626,7 +3638,7 @@
         <v>1926.0</v>
       </c>
       <c r="E199" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200">
@@ -3643,7 +3655,7 @@
         <v>1927.0</v>
       </c>
       <c r="E200" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201">
@@ -3660,7 +3672,7 @@
         <v>1928.0</v>
       </c>
       <c r="E201" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202">
@@ -3677,7 +3689,7 @@
         <v>1929.0</v>
       </c>
       <c r="E202" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203">
@@ -3694,7 +3706,7 @@
         <v>1930.0</v>
       </c>
       <c r="E203" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204">
@@ -3711,7 +3723,7 @@
         <v>1931.0</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205">
@@ -3728,7 +3740,7 @@
         <v>1932.0</v>
       </c>
       <c r="E205" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206">
@@ -3745,7 +3757,7 @@
         <v>1933.0</v>
       </c>
       <c r="E206" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207">
@@ -3762,7 +3774,7 @@
         <v>1934.0</v>
       </c>
       <c r="E207" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208">
@@ -3779,7 +3791,7 @@
         <v>1935.0</v>
       </c>
       <c r="E208" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209">
@@ -3796,7 +3808,7 @@
         <v>1936.0</v>
       </c>
       <c r="E209" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210">
@@ -3813,7 +3825,7 @@
         <v>1937.0</v>
       </c>
       <c r="E210" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211">
@@ -3830,7 +3842,7 @@
         <v>1938.0</v>
       </c>
       <c r="E211" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212">
@@ -3847,7 +3859,7 @@
         <v>1939.0</v>
       </c>
       <c r="E212" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213">
@@ -3864,7 +3876,7 @@
         <v>1940.0</v>
       </c>
       <c r="E213" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214">
@@ -3881,7 +3893,7 @@
         <v>1941.0</v>
       </c>
       <c r="E214" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215">
@@ -3898,7 +3910,7 @@
         <v>1942.0</v>
       </c>
       <c r="E215" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216">
@@ -3915,7 +3927,7 @@
         <v>1943.0</v>
       </c>
       <c r="E216" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217">
@@ -3932,7 +3944,7 @@
         <v>1944.0</v>
       </c>
       <c r="E217" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218">
@@ -3949,7 +3961,7 @@
         <v>1945.0</v>
       </c>
       <c r="E218" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219">
@@ -3966,7 +3978,7 @@
         <v>1946.0</v>
       </c>
       <c r="E219" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220">
@@ -3983,7 +3995,7 @@
         <v>1947.0</v>
       </c>
       <c r="E220" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221">
@@ -4000,7 +4012,7 @@
         <v>1948.0</v>
       </c>
       <c r="E221" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222">
@@ -4017,7 +4029,7 @@
         <v>1949.0</v>
       </c>
       <c r="E222" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223">
@@ -4034,7 +4046,7 @@
         <v>1950.0</v>
       </c>
       <c r="E223" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224">
@@ -4051,7 +4063,7 @@
         <v>1951.0</v>
       </c>
       <c r="E224" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225">
@@ -4068,7 +4080,7 @@
         <v>1952.0</v>
       </c>
       <c r="E225" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226">
@@ -4085,7 +4097,7 @@
         <v>1953.0</v>
       </c>
       <c r="E226" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227">
@@ -4102,7 +4114,7 @@
         <v>1954.0</v>
       </c>
       <c r="E227" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228">
@@ -4119,7 +4131,7 @@
         <v>1955.0</v>
       </c>
       <c r="E228" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229">
@@ -4136,7 +4148,7 @@
         <v>1956.0</v>
       </c>
       <c r="E229" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230">
@@ -4153,7 +4165,7 @@
         <v>1957.0</v>
       </c>
       <c r="E230" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231">
@@ -4170,7 +4182,7 @@
         <v>1958.0</v>
       </c>
       <c r="E231" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="232">
@@ -4187,7 +4199,7 @@
         <v>1959.0</v>
       </c>
       <c r="E232" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233">
@@ -4204,7 +4216,7 @@
         <v>1960.0</v>
       </c>
       <c r="E233" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="234">
@@ -4221,7 +4233,7 @@
         <v>1961.0</v>
       </c>
       <c r="E234" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="235">
@@ -4238,7 +4250,7 @@
         <v>1962.0</v>
       </c>
       <c r="E235" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236">
@@ -4255,7 +4267,7 @@
         <v>1963.0</v>
       </c>
       <c r="E236" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237">
@@ -4272,7 +4284,7 @@
         <v>1964.0</v>
       </c>
       <c r="E237" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238">
@@ -4289,7 +4301,7 @@
         <v>1965.0</v>
       </c>
       <c r="E238" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239">
@@ -4306,7 +4318,7 @@
         <v>1966.0</v>
       </c>
       <c r="E239" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240">
@@ -4323,7 +4335,7 @@
         <v>1967.0</v>
       </c>
       <c r="E240" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241">
@@ -4340,7 +4352,7 @@
         <v>1968.0</v>
       </c>
       <c r="E241" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242">
@@ -4357,7 +4369,7 @@
         <v>1969.0</v>
       </c>
       <c r="E242" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
@@ -4374,7 +4386,7 @@
         <v>1970.0</v>
       </c>
       <c r="E243" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244">
@@ -4391,7 +4403,7 @@
         <v>1971.0</v>
       </c>
       <c r="E244" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245">
@@ -4408,7 +4420,7 @@
         <v>1972.0</v>
       </c>
       <c r="E245" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246">
@@ -4425,7 +4437,7 @@
         <v>1973.0</v>
       </c>
       <c r="E246" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="247">
@@ -4442,7 +4454,7 @@
         <v>1974.0</v>
       </c>
       <c r="E247" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="248">
@@ -4459,7 +4471,7 @@
         <v>1975.0</v>
       </c>
       <c r="E248" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="249">
@@ -4476,7 +4488,7 @@
         <v>1976.0</v>
       </c>
       <c r="E249" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250">
@@ -4493,7 +4505,7 @@
         <v>1977.0</v>
       </c>
       <c r="E250" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251">
@@ -4510,7 +4522,7 @@
         <v>1978.0</v>
       </c>
       <c r="E251" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="252">
@@ -4527,7 +4539,7 @@
         <v>1979.0</v>
       </c>
       <c r="E252" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="253">
@@ -4544,7 +4556,7 @@
         <v>1980.0</v>
       </c>
       <c r="E253" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="254">
@@ -4561,7 +4573,7 @@
         <v>1981.0</v>
       </c>
       <c r="E254" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="255">
@@ -4578,7 +4590,7 @@
         <v>1982.0</v>
       </c>
       <c r="E255" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="256">
@@ -4595,7 +4607,7 @@
         <v>1983.0</v>
       </c>
       <c r="E256" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="257">
@@ -4612,7 +4624,7 @@
         <v>1984.0</v>
       </c>
       <c r="E257" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258">
@@ -4629,7 +4641,7 @@
         <v>1985.0</v>
       </c>
       <c r="E258" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="259">
@@ -4646,7 +4658,7 @@
         <v>1986.0</v>
       </c>
       <c r="E259" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="260">
@@ -4663,7 +4675,7 @@
         <v>1987.0</v>
       </c>
       <c r="E260" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="261">
@@ -4680,7 +4692,7 @@
         <v>1988.0</v>
       </c>
       <c r="E261" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="262">
@@ -4697,7 +4709,7 @@
         <v>1989.0</v>
       </c>
       <c r="E262" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="263">
@@ -4714,7 +4726,7 @@
         <v>1990.0</v>
       </c>
       <c r="E263" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="264">
@@ -4731,7 +4743,7 @@
         <v>1991.0</v>
       </c>
       <c r="E264" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="265">
@@ -4748,7 +4760,7 @@
         <v>1992.0</v>
       </c>
       <c r="E265" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="266">
@@ -4765,7 +4777,7 @@
         <v>1993.0</v>
       </c>
       <c r="E266" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="267">
@@ -4782,7 +4794,7 @@
         <v>1994.0</v>
       </c>
       <c r="E267" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="268">
@@ -4799,7 +4811,7 @@
         <v>1995.0</v>
       </c>
       <c r="E268" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="269">
@@ -4816,7 +4828,7 @@
         <v>1996.0</v>
       </c>
       <c r="E269" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="270">
@@ -4833,7 +4845,7 @@
         <v>1997.0</v>
       </c>
       <c r="E270" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="271">
@@ -4850,7 +4862,7 @@
         <v>1998.0</v>
       </c>
       <c r="E271" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="272">
@@ -4867,7 +4879,7 @@
         <v>1999.0</v>
       </c>
       <c r="E272" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="273">
@@ -4884,7 +4896,7 @@
         <v>2000.0</v>
       </c>
       <c r="E273" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="274">
@@ -4901,7 +4913,7 @@
         <v>2001.0</v>
       </c>
       <c r="E274" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="275">
@@ -4918,7 +4930,7 @@
         <v>2002.0</v>
       </c>
       <c r="E275" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="276">
@@ -4935,7 +4947,7 @@
         <v>2003.0</v>
       </c>
       <c r="E276" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="277">
@@ -4952,7 +4964,7 @@
         <v>2004.0</v>
       </c>
       <c r="E277" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278">
@@ -4969,7 +4981,7 @@
         <v>2005.0</v>
       </c>
       <c r="E278" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="279">
@@ -4986,7 +4998,7 @@
         <v>2006.0</v>
       </c>
       <c r="E279" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="280">
@@ -5003,7 +5015,7 @@
         <v>2007.0</v>
       </c>
       <c r="E280" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="281">
@@ -5020,7 +5032,7 @@
         <v>2008.0</v>
       </c>
       <c r="E281" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="282">
@@ -5054,7 +5066,7 @@
         <v>2010.0</v>
       </c>
       <c r="E283" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="284">
@@ -5071,7 +5083,7 @@
         <v>2011.0</v>
       </c>
       <c r="E284" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="285">
@@ -5088,7 +5100,7 @@
         <v>2012.0</v>
       </c>
       <c r="E285" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5106,50 +5118,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
